--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3967.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3967.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.182616904770854</v>
+        <v>2.295055866241455</v>
       </c>
       <c r="B1">
-        <v>2.224219260823682</v>
+        <v>2.575385093688965</v>
       </c>
       <c r="C1">
-        <v>5.802119514103121</v>
+        <v>2.478209495544434</v>
       </c>
       <c r="D1">
-        <v>3.484423970879812</v>
+        <v>2.273751258850098</v>
       </c>
       <c r="E1">
-        <v>1.436597928088858</v>
+        <v>0.4238124191761017</v>
       </c>
     </row>
   </sheetData>
